--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-procedure.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>患者に対して、または患者のために実行されているか実行されたアクション。これは、手術のような身体的介入、または長期サービス、カウンセリング、催眠療法のような低侵襲性である可能性がある。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1973,13 +1969,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1990,10 +1986,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2004,28 +2000,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2075,13 +2071,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2104,10 +2100,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2118,25 +2114,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2187,19 +2183,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2216,10 +2212,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2230,28 +2226,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2301,19 +2297,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2330,10 +2326,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2344,7 +2340,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2356,16 +2352,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>70</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2391,43 +2387,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2444,21 +2440,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2470,16 +2466,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2529,25 +2525,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2558,14 +2554,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2584,16 +2580,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2643,7 +2639,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2661,7 +2657,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2672,14 +2668,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2698,16 +2694,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2757,7 +2753,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2769,13 +2765,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>38</v>
@@ -2786,14 +2782,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2806,25 +2802,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2873,7 +2869,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2885,13 +2881,13 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>38</v>
@@ -2902,10 +2898,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2925,22 +2921,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="O10" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2989,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -3001,27 +2997,27 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AL10" t="s" s="2">
+      <c r="AM10" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AM10" t="s" s="2">
+      <c r="AN10" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3041,16 +3037,16 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3101,7 +3097,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -3113,13 +3109,13 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>38</v>
@@ -3130,10 +3126,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3153,19 +3149,19 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3215,7 +3211,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3227,13 +3223,13 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>38</v>
@@ -3244,14 +3240,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3267,19 +3263,19 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3329,7 +3325,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3341,13 +3337,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3358,14 +3354,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3381,19 +3377,19 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3443,7 +3439,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3455,13 +3451,13 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3472,10 +3468,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3483,31 +3479,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="J15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3533,52 +3529,52 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3586,42 +3582,42 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3647,47 +3643,47 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3698,10 +3694,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3712,25 +3708,25 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3757,50 +3753,50 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>38</v>
@@ -3808,45 +3804,45 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3871,61 +3867,61 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3936,7 +3932,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3948,13 +3944,13 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4005,25 +4001,25 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -4034,14 +4030,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4060,16 +4056,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4107,19 +4103,19 @@
         <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4131,13 +4127,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4148,10 +4144,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4171,22 +4167,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4223,17 +4219,17 @@
         <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC21" s="2"/>
       <c r="AD21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4245,30 +4241,30 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -4278,31 +4274,31 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4327,11 +4323,11 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>38</v>
@@ -4349,7 +4345,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4361,27 +4357,27 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4392,7 +4388,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4404,13 +4400,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4461,25 +4457,25 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4490,14 +4486,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4516,16 +4512,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4563,19 +4559,19 @@
         <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4587,13 +4583,13 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4604,10 +4600,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4615,115 +4611,115 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="S25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4734,28 +4730,28 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K26" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4805,39 +4801,39 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4848,29 +4844,29 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4919,39 +4915,39 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4962,29 +4958,29 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5033,39 +5029,39 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5076,31 +5072,31 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5149,42 +5145,42 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>38</v>
@@ -5194,31 +5190,31 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5243,11 +5239,11 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>38</v>
@@ -5265,7 +5261,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5277,27 +5273,27 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5308,7 +5304,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5320,13 +5316,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5377,25 +5373,25 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5406,14 +5402,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5432,16 +5428,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M32" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5479,19 +5475,19 @@
         <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC32" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AD32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AD32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5503,13 +5499,13 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5520,10 +5516,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5531,41 +5527,41 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>38</v>
@@ -5607,39 +5603,39 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5650,28 +5646,28 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5721,39 +5717,39 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5764,29 +5760,29 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5835,39 +5831,39 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5878,29 +5874,29 @@
         <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5949,39 +5945,39 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5992,31 +5988,31 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K37" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>38</v>
@@ -6065,42 +6061,42 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>38</v>
@@ -6110,31 +6106,31 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M38" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6159,11 +6155,11 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6181,7 +6177,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6193,27 +6189,27 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6224,7 +6220,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6236,13 +6232,13 @@
         <v>38</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6293,25 +6289,25 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6322,14 +6318,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6348,16 +6344,16 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6395,19 +6391,19 @@
         <v>38</v>
       </c>
       <c r="AB40" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC40" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC40" t="s" s="2">
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
+      <c r="AF40" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6419,13 +6415,13 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6436,10 +6432,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6447,41 +6443,41 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>38</v>
@@ -6523,39 +6519,39 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6566,28 +6562,28 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6637,39 +6633,39 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6680,29 +6676,29 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6751,39 +6747,39 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6794,29 +6790,29 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6865,39 +6861,39 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6908,31 +6904,31 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J45" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K45" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6981,42 +6977,42 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>38</v>
@@ -7026,31 +7022,31 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M46" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7075,11 +7071,11 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7097,7 +7093,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7109,27 +7105,27 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7140,7 +7136,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7152,13 +7148,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7209,25 +7205,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7238,14 +7234,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7264,16 +7260,16 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7311,19 +7307,19 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC48" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC48" t="s" s="2">
+      <c r="AD48" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AD48" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7335,13 +7331,13 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7352,10 +7348,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7363,41 +7359,41 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K49" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>38</v>
@@ -7439,39 +7435,39 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7482,28 +7478,28 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J50" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K50" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7553,39 +7549,39 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7596,29 +7592,29 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J51" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K51" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7667,39 +7663,39 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7710,29 +7706,29 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J52" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K52" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7781,39 +7777,39 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7824,31 +7820,31 @@
         <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J53" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K53" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7897,42 +7893,42 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="C54" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>38</v>
@@ -7942,31 +7938,31 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M54" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7991,11 +7987,11 @@
         <v>38</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>38</v>
@@ -8013,7 +8009,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8025,27 +8021,27 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8056,7 +8052,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8068,13 +8064,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8125,25 +8121,25 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8154,14 +8150,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8180,16 +8176,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8227,19 +8223,19 @@
         <v>38</v>
       </c>
       <c r="AB56" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AC56" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AC56" t="s" s="2">
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AD56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8251,13 +8247,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8268,10 +8264,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8279,41 +8275,41 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K57" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>38</v>
@@ -8355,39 +8351,39 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8398,28 +8394,28 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8469,39 +8465,39 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8512,29 +8508,29 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8583,39 +8579,39 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>233</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8626,29 +8622,29 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8697,39 +8693,39 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8740,31 +8736,31 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K61" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8813,39 +8809,39 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8856,31 +8852,31 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K62" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -8929,71 +8925,71 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K63" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9043,39 +9039,39 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9086,28 +9082,28 @@
         <v>39</v>
       </c>
       <c r="G64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K64" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9157,39 +9153,39 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9200,28 +9196,28 @@
         <v>39</v>
       </c>
       <c r="G65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K65" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9271,39 +9267,39 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9314,28 +9310,28 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K66" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9385,28 +9381,28 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
@@ -9414,10 +9410,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9428,28 +9424,28 @@
         <v>39</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K67" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="N67" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9499,28 +9495,28 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>38</v>
@@ -9528,10 +9524,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9551,16 +9547,16 @@
         <v>38</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9611,7 +9607,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9623,13 +9619,13 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL68" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -9640,10 +9636,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9654,7 +9650,7 @@
         <v>39</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -9666,13 +9662,13 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9723,25 +9719,25 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
@@ -9752,14 +9748,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9778,16 +9774,16 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M70" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9837,7 +9833,7 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9849,13 +9845,13 @@
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
@@ -9866,14 +9862,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9886,25 +9882,25 @@
         <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="N71" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>38</v>
@@ -9953,7 +9949,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -9965,13 +9961,13 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
@@ -9982,10 +9978,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9996,31 +9992,31 @@
         <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K72" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10045,61 +10041,61 @@
         <v>38</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AA72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>369</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10107,34 +10103,34 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K73" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10183,39 +10179,39 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10226,7 +10222,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10238,19 +10234,19 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>38</v>
@@ -10299,25 +10295,25 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10328,10 +10324,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10342,31 +10338,31 @@
         <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J75" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K75" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O75" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>38</v>
@@ -10415,28 +10411,28 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>38</v>
@@ -10444,10 +10440,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10467,19 +10463,19 @@
         <v>38</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10505,11 +10501,11 @@
         <v>38</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>38</v>
@@ -10527,7 +10523,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -10539,16 +10535,16 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK76" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL76" t="s" s="2">
+      <c r="AM76" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>38</v>
@@ -10556,10 +10552,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10579,19 +10575,19 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10641,7 +10637,7 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10653,16 +10649,16 @@
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL77" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>38</v>
@@ -10670,10 +10666,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10693,19 +10689,19 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10731,11 +10727,11 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -10753,7 +10749,7 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10765,27 +10761,27 @@
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10796,28 +10792,28 @@
         <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10843,47 +10839,47 @@
         <v>38</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>38</v>
@@ -10894,10 +10890,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10920,16 +10916,16 @@
         <v>38</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10979,7 +10975,7 @@
         <v>38</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -10991,13 +10987,13 @@
         <v>38</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>38</v>
@@ -11008,10 +11004,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11034,16 +11030,16 @@
         <v>38</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11069,11 +11065,11 @@
         <v>38</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>38</v>
@@ -11091,7 +11087,7 @@
         <v>38</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11103,13 +11099,13 @@
         <v>38</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>38</v>
@@ -11120,10 +11116,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11146,19 +11142,19 @@
         <v>38</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O82" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>38</v>
@@ -11207,7 +11203,7 @@
         <v>38</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -11219,13 +11215,13 @@
         <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>38</v>
@@ -11236,10 +11232,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11262,13 +11258,13 @@
         <v>38</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11295,11 +11291,11 @@
         <v>38</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>38</v>
@@ -11317,7 +11313,7 @@
         <v>38</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -11329,13 +11325,13 @@
         <v>38</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>38</v>
@@ -11346,10 +11342,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11372,16 +11368,16 @@
         <v>38</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11431,7 +11427,7 @@
         <v>38</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -11443,27 +11439,27 @@
         <v>38</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL84" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>450</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11486,13 +11482,13 @@
         <v>38</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11543,7 +11539,7 @@
         <v>38</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -11555,13 +11551,13 @@
         <v>38</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>38</v>
@@ -11572,10 +11568,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11586,7 +11582,7 @@
         <v>39</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>38</v>
@@ -11598,13 +11594,13 @@
         <v>38</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11655,25 +11651,25 @@
         <v>38</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>38</v>
@@ -11684,14 +11680,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11710,16 +11706,16 @@
         <v>38</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L87" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M87" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11769,7 +11765,7 @@
         <v>38</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -11781,13 +11777,13 @@
         <v>38</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>38</v>
@@ -11798,14 +11794,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11818,25 +11814,25 @@
         <v>38</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="N88" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>38</v>
@@ -11885,7 +11881,7 @@
         <v>38</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -11897,13 +11893,13 @@
         <v>38</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>38</v>
@@ -11914,10 +11910,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11928,7 +11924,7 @@
         <v>39</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>38</v>
@@ -11940,13 +11936,13 @@
         <v>38</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11973,47 +11969,47 @@
         <v>38</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y89" s="2"/>
       <c r="Z89" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL89" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>38</v>
@@ -12024,10 +12020,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12035,10 +12031,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>38</v>
@@ -12050,13 +12046,13 @@
         <v>38</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12107,25 +12103,25 @@
         <v>38</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>38</v>
@@ -12136,10 +12132,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12162,19 +12158,19 @@
         <v>38</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>38</v>
@@ -12223,7 +12219,7 @@
         <v>38</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -12235,13 +12231,13 @@
         <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>38</v>
@@ -12252,10 +12248,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12278,16 +12274,16 @@
         <v>38</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M92" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="N92" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12313,11 +12309,11 @@
         <v>38</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>38</v>
@@ -12335,7 +12331,7 @@
         <v>38</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -12347,13 +12343,13 @@
         <v>38</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>38</v>
